--- a/data/pca/factorExposure/factorExposure_2017-08-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.023756037563571</v>
+        <v>0.007876575595915578</v>
       </c>
       <c r="C2">
-        <v>0.000156462745063891</v>
+        <v>-0.04463618012137005</v>
       </c>
       <c r="D2">
-        <v>0.01968861858034263</v>
+        <v>-0.02995725258807204</v>
       </c>
       <c r="E2">
-        <v>0.01184852471354524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03342143325533634</v>
+      </c>
+      <c r="F2">
+        <v>0.0128438653297851</v>
+      </c>
+      <c r="G2">
+        <v>0.04875836806899302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01570379681728373</v>
+        <v>0.05418214553184353</v>
       </c>
       <c r="C3">
-        <v>0.05187879218574255</v>
+        <v>-0.0691893067064267</v>
       </c>
       <c r="D3">
-        <v>0.008602487504159545</v>
+        <v>-0.01486696737103996</v>
       </c>
       <c r="E3">
-        <v>0.007960897281443041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09924203032405225</v>
+      </c>
+      <c r="F3">
+        <v>0.03605521475486748</v>
+      </c>
+      <c r="G3">
+        <v>0.1137244348466837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02356666531991202</v>
+        <v>0.05926909202301153</v>
       </c>
       <c r="C4">
-        <v>0.0200254563444209</v>
+        <v>-0.06120844782766555</v>
       </c>
       <c r="D4">
-        <v>0.06213144845316507</v>
+        <v>-0.02326388338804693</v>
       </c>
       <c r="E4">
-        <v>-0.01421110305464416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01874608015809378</v>
+      </c>
+      <c r="F4">
+        <v>0.007867620646202897</v>
+      </c>
+      <c r="G4">
+        <v>0.06162048569338682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01494899999730863</v>
+        <v>0.04009412865655979</v>
       </c>
       <c r="C6">
-        <v>0.008999415936666654</v>
+        <v>-0.05127668923981926</v>
       </c>
       <c r="D6">
-        <v>0.08681821328734038</v>
+        <v>-0.0157071782757401</v>
       </c>
       <c r="E6">
-        <v>-0.009840014049181407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01800687719473994</v>
+      </c>
+      <c r="F6">
+        <v>0.01230488819282657</v>
+      </c>
+      <c r="G6">
+        <v>0.03971902369593447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01073740879707979</v>
+        <v>0.01763091428135074</v>
       </c>
       <c r="C7">
-        <v>0.006054253325908454</v>
+        <v>-0.03780396670025159</v>
       </c>
       <c r="D7">
-        <v>0.02835273035306614</v>
+        <v>-0.0133250721121566</v>
       </c>
       <c r="E7">
-        <v>-0.07555498499434728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.007814992984052542</v>
+      </c>
+      <c r="F7">
+        <v>-0.0002333941170445596</v>
+      </c>
+      <c r="G7">
+        <v>0.1051796599729752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-2.205312037676388e-05</v>
+        <v>0.0008103085526531355</v>
       </c>
       <c r="C8">
-        <v>0.0008804451446897044</v>
+        <v>-0.02092727564518004</v>
       </c>
       <c r="D8">
-        <v>0.003964972020278091</v>
+        <v>-0.00377744030535749</v>
       </c>
       <c r="E8">
-        <v>-0.00478839393402971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02299901127682094</v>
+      </c>
+      <c r="F8">
+        <v>0.01810390274736726</v>
+      </c>
+      <c r="G8">
+        <v>0.03138744369031232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.016354972412522</v>
+        <v>0.03467073358620385</v>
       </c>
       <c r="C9">
-        <v>0.02098859284606288</v>
+        <v>-0.042313563827954</v>
       </c>
       <c r="D9">
-        <v>0.04733684827387692</v>
+        <v>-0.0159453800703611</v>
       </c>
       <c r="E9">
-        <v>-0.00418827113985829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01345721402232946</v>
+      </c>
+      <c r="F9">
+        <v>0.01463011043655034</v>
+      </c>
+      <c r="G9">
+        <v>0.05928854114235214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02038312932379887</v>
+        <v>0.08874125793505212</v>
       </c>
       <c r="C10">
-        <v>0.1645608030013963</v>
+        <v>0.1868700229325128</v>
       </c>
       <c r="D10">
-        <v>-0.1166299717684631</v>
+        <v>0.01702538823884726</v>
       </c>
       <c r="E10">
-        <v>-0.006464225597841915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01066764569547563</v>
+      </c>
+      <c r="F10">
+        <v>-0.01829361736918021</v>
+      </c>
+      <c r="G10">
+        <v>0.04598250215033385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006659888188098704</v>
+        <v>0.0344097166003525</v>
       </c>
       <c r="C11">
-        <v>0.007058013174374638</v>
+        <v>-0.05309063821403554</v>
       </c>
       <c r="D11">
-        <v>0.04181141726316393</v>
+        <v>-0.002339494605594745</v>
       </c>
       <c r="E11">
-        <v>0.006942910139666922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.007433349616046294</v>
+      </c>
+      <c r="F11">
+        <v>0.02320474014567436</v>
+      </c>
+      <c r="G11">
+        <v>0.04062456229719668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006264072234842696</v>
+        <v>0.03638392267646841</v>
       </c>
       <c r="C12">
-        <v>0.01299114870496077</v>
+        <v>-0.04789415722751746</v>
       </c>
       <c r="D12">
-        <v>0.04485141416189484</v>
+        <v>-0.006221375413398727</v>
       </c>
       <c r="E12">
-        <v>-0.002760037863629339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001334054588263243</v>
+      </c>
+      <c r="F12">
+        <v>0.003807820912623579</v>
+      </c>
+      <c r="G12">
+        <v>0.04073108208752654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02252347759016213</v>
+        <v>0.01649048513597313</v>
       </c>
       <c r="C13">
-        <v>0.01530727792892194</v>
+        <v>-0.03437293779688514</v>
       </c>
       <c r="D13">
-        <v>0.01092348051448191</v>
+        <v>-0.02541334566054613</v>
       </c>
       <c r="E13">
-        <v>0.01107913882457873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02513759638321808</v>
+      </c>
+      <c r="F13">
+        <v>0.008540176214122012</v>
+      </c>
+      <c r="G13">
+        <v>0.0619059817442224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007889450665566513</v>
+        <v>0.008830467779677298</v>
       </c>
       <c r="C14">
-        <v>0.01471893714628401</v>
+        <v>-0.02582897444415401</v>
       </c>
       <c r="D14">
-        <v>0.01161375373837449</v>
+        <v>-0.008707978579872787</v>
       </c>
       <c r="E14">
-        <v>-0.0115060771627323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004235393969504999</v>
+      </c>
+      <c r="F14">
+        <v>-0.005673774591690294</v>
+      </c>
+      <c r="G14">
+        <v>0.05887065940977956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001484453631439999</v>
+        <v>0.03242273755199206</v>
       </c>
       <c r="C16">
-        <v>0.01289225128850924</v>
+        <v>-0.0470329330929971</v>
       </c>
       <c r="D16">
-        <v>0.04738131437966482</v>
+        <v>-0.002005938887667986</v>
       </c>
       <c r="E16">
-        <v>-0.00221407542382972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006795870407671858</v>
+      </c>
+      <c r="F16">
+        <v>0.005768815578607891</v>
+      </c>
+      <c r="G16">
+        <v>0.0443953450200362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01417281370813011</v>
+        <v>0.02423132488591023</v>
       </c>
       <c r="C19">
-        <v>0.02395048675550835</v>
+        <v>-0.04883758969323489</v>
       </c>
       <c r="D19">
-        <v>0.01913680012820463</v>
+        <v>-0.01676807844598341</v>
       </c>
       <c r="E19">
-        <v>-0.00538015388921827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05600511996792992</v>
+      </c>
+      <c r="F19">
+        <v>0.02036679197788505</v>
+      </c>
+      <c r="G19">
+        <v>0.07454360727372315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0110862497570951</v>
+        <v>0.01395557561655503</v>
       </c>
       <c r="C20">
-        <v>0.009137334431391902</v>
+        <v>-0.03409907914535522</v>
       </c>
       <c r="D20">
-        <v>0.008775074495050357</v>
+        <v>-0.01343149162479802</v>
       </c>
       <c r="E20">
-        <v>0.002345736048050575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02543942527175662</v>
+      </c>
+      <c r="F20">
+        <v>-0.003158622816242504</v>
+      </c>
+      <c r="G20">
+        <v>0.05873974330931922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01506199258189745</v>
+        <v>0.01375883071746795</v>
       </c>
       <c r="C21">
-        <v>0.02417250707393531</v>
+        <v>-0.03635984519262414</v>
       </c>
       <c r="D21">
-        <v>0.02148554951171125</v>
+        <v>-0.01721148659490773</v>
       </c>
       <c r="E21">
-        <v>-0.01675694116481822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0342181432380135</v>
+      </c>
+      <c r="F21">
+        <v>0.0006393937775809053</v>
+      </c>
+      <c r="G21">
+        <v>0.0834629144020622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004494866414832236</v>
+        <v>0.02711725611975369</v>
       </c>
       <c r="C24">
-        <v>0.001546321818621958</v>
+        <v>-0.04994137790735138</v>
       </c>
       <c r="D24">
-        <v>0.04274871480408041</v>
+        <v>-0.007410966100004675</v>
       </c>
       <c r="E24">
-        <v>-7.083900694369753e-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.003994915523539568</v>
+      </c>
+      <c r="F24">
+        <v>0.01791714649108641</v>
+      </c>
+      <c r="G24">
+        <v>0.04608865440692686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01205982906997459</v>
+        <v>0.04206714415808911</v>
       </c>
       <c r="C25">
-        <v>0.01773501463703903</v>
+        <v>-0.05621729809052653</v>
       </c>
       <c r="D25">
-        <v>0.04526594300407336</v>
+        <v>-0.01133455342182579</v>
       </c>
       <c r="E25">
-        <v>0.001254863620262264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.004026967899914689</v>
+      </c>
+      <c r="F25">
+        <v>0.0115834323731681</v>
+      </c>
+      <c r="G25">
+        <v>0.05129519157462274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02309505145372484</v>
+        <v>0.01436159410709714</v>
       </c>
       <c r="C26">
-        <v>0.01072263552606547</v>
+        <v>-0.008655061156156774</v>
       </c>
       <c r="D26">
-        <v>-0.007248005865537096</v>
+        <v>-0.02335721584451051</v>
       </c>
       <c r="E26">
-        <v>-0.00788832435388678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.00343520840894501</v>
+      </c>
+      <c r="F26">
+        <v>-0.004546608975168271</v>
+      </c>
+      <c r="G26">
+        <v>0.04564402085617692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04281328696141705</v>
+        <v>0.1132926540280892</v>
       </c>
       <c r="C28">
-        <v>0.2361164056180355</v>
+        <v>0.2355991515583681</v>
       </c>
       <c r="D28">
-        <v>-0.1647062306482638</v>
+        <v>0.008170267465430169</v>
       </c>
       <c r="E28">
-        <v>-0.01631780531323695</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0002712790965284533</v>
+      </c>
+      <c r="F28">
+        <v>-0.02010894045264699</v>
+      </c>
+      <c r="G28">
+        <v>0.06357928703133595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008217773970720621</v>
+        <v>0.01125666048472413</v>
       </c>
       <c r="C29">
-        <v>0.01825361943355173</v>
+        <v>-0.01988101099664106</v>
       </c>
       <c r="D29">
-        <v>0.009984120842374258</v>
+        <v>-0.007490818947660753</v>
       </c>
       <c r="E29">
-        <v>-0.006999722931977649</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.006789261863233004</v>
+      </c>
+      <c r="F29">
+        <v>-0.01502693032241015</v>
+      </c>
+      <c r="G29">
+        <v>0.04913369034406229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02347628123903524</v>
+        <v>0.04677862987255494</v>
       </c>
       <c r="C30">
-        <v>0.004668263144307506</v>
+        <v>-0.06266581112093396</v>
       </c>
       <c r="D30">
-        <v>0.06219550561975612</v>
+        <v>-0.0278000963372491</v>
       </c>
       <c r="E30">
-        <v>0.05573620824211283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.0450463314901341</v>
+      </c>
+      <c r="F30">
+        <v>0.05196147480901064</v>
+      </c>
+      <c r="G30">
+        <v>0.03748553921713235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.00965900629167726</v>
+        <v>0.05339026958781138</v>
       </c>
       <c r="C31">
-        <v>0.04239659174392224</v>
+        <v>-0.03190166452492498</v>
       </c>
       <c r="D31">
-        <v>0.04176223326010638</v>
+        <v>-0.003088355197656608</v>
       </c>
       <c r="E31">
-        <v>-0.01013464555487147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007513698834900471</v>
+      </c>
+      <c r="F31">
+        <v>-0.0361813948863822</v>
+      </c>
+      <c r="G31">
+        <v>0.04897235714575351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006186975985846615</v>
+        <v>-0.004907291646274292</v>
       </c>
       <c r="C32">
-        <v>0.0191990246179259</v>
+        <v>-0.02973882336170721</v>
       </c>
       <c r="D32">
-        <v>-0.001808971758349497</v>
+        <v>0.00377202900524987</v>
       </c>
       <c r="E32">
-        <v>-0.03272859732073547</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01546685308208523</v>
+      </c>
+      <c r="F32">
+        <v>0.04259465008450541</v>
+      </c>
+      <c r="G32">
+        <v>0.0676067673334171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01385354400268342</v>
+        <v>0.0272998329118416</v>
       </c>
       <c r="C33">
-        <v>0.02649516570406791</v>
+        <v>-0.04634358923451069</v>
       </c>
       <c r="D33">
-        <v>0.02130330517222553</v>
+        <v>-0.0148326995325098</v>
       </c>
       <c r="E33">
-        <v>0.02653074400531339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02897194362008569</v>
+      </c>
+      <c r="F33">
+        <v>0.02096636430561638</v>
+      </c>
+      <c r="G33">
+        <v>0.06828376480010268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004029928261294704</v>
+        <v>0.03989773556761569</v>
       </c>
       <c r="C34">
-        <v>0.01875525823578912</v>
+        <v>-0.05995569297315101</v>
       </c>
       <c r="D34">
-        <v>0.04843148005703157</v>
+        <v>0.004286519506983662</v>
       </c>
       <c r="E34">
-        <v>-0.008074003991511003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.002374075083832394</v>
+      </c>
+      <c r="F34">
+        <v>0.02343738026009959</v>
+      </c>
+      <c r="G34">
+        <v>0.05517604225713654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01323568793175873</v>
+        <v>0.01436845538495518</v>
       </c>
       <c r="C36">
-        <v>0.02230329146340618</v>
+        <v>-0.009392541611874149</v>
       </c>
       <c r="D36">
-        <v>0.003368033686552195</v>
+        <v>-0.0116011563266932</v>
       </c>
       <c r="E36">
-        <v>-0.001372031254456468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001224252375676506</v>
+      </c>
+      <c r="F36">
+        <v>-0.005926535218031495</v>
+      </c>
+      <c r="G36">
+        <v>0.04053580553995808</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003262585805739732</v>
+        <v>0.03225131096879438</v>
       </c>
       <c r="C38">
-        <v>0.0368665923095905</v>
+        <v>-0.02835273679840539</v>
       </c>
       <c r="D38">
-        <v>0.03286190471773904</v>
+        <v>0.007525545524942888</v>
       </c>
       <c r="E38">
-        <v>-0.0008501814611398461</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004112606528125374</v>
+      </c>
+      <c r="F38">
+        <v>-0.01228361085493386</v>
+      </c>
+      <c r="G38">
+        <v>0.04811650169079656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.00501951822553415</v>
+        <v>0.03335791961647103</v>
       </c>
       <c r="C39">
-        <v>-0.01716037550135322</v>
+        <v>-0.08186448013271574</v>
       </c>
       <c r="D39">
-        <v>0.09004680824242406</v>
+        <v>-0.01224241627559137</v>
       </c>
       <c r="E39">
-        <v>0.008224064655845431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0225490930886609</v>
+      </c>
+      <c r="F39">
+        <v>0.0302157483194108</v>
+      </c>
+      <c r="G39">
+        <v>0.04586961879967145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01268850181602716</v>
+        <v>0.01896907707712375</v>
       </c>
       <c r="C40">
-        <v>0.02343530375236424</v>
+        <v>-0.03291460138899894</v>
       </c>
       <c r="D40">
-        <v>0.03064291898262812</v>
+        <v>-0.01357814498598024</v>
       </c>
       <c r="E40">
-        <v>0.002541667251727841</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02026504869935286</v>
+      </c>
+      <c r="F40">
+        <v>0.01167460307990682</v>
+      </c>
+      <c r="G40">
+        <v>0.04657115678362183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006337631672634207</v>
+        <v>0.01488208243564755</v>
       </c>
       <c r="C41">
-        <v>0.02226175816374516</v>
+        <v>-0.00377342162364303</v>
       </c>
       <c r="D41">
-        <v>-0.009032089873677497</v>
+        <v>-0.003928781393897204</v>
       </c>
       <c r="E41">
-        <v>-0.001846562321355481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0020976563245329</v>
+      </c>
+      <c r="F41">
+        <v>-0.01041696005991835</v>
+      </c>
+      <c r="G41">
+        <v>0.02800861775017409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0931834010455167</v>
+        <v>0.01341544786356548</v>
       </c>
       <c r="C42">
-        <v>-0.003329081741011611</v>
+        <v>-0.03801734539169565</v>
       </c>
       <c r="D42">
-        <v>0.2619082313037353</v>
+        <v>-0.09411101064745762</v>
       </c>
       <c r="E42">
-        <v>0.3063286614821537</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03379065075733155</v>
+      </c>
+      <c r="F42">
+        <v>-0.03801690091555461</v>
+      </c>
+      <c r="G42">
+        <v>-0.1756840482399316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007866249855732909</v>
+        <v>0.0303157150055804</v>
       </c>
       <c r="C43">
-        <v>0.02655247412739278</v>
+        <v>-0.01349487145768142</v>
       </c>
       <c r="D43">
-        <v>-0.01340277182370334</v>
+        <v>-0.005240157291555557</v>
       </c>
       <c r="E43">
-        <v>0.004985750619979056</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0103147079083456</v>
+      </c>
+      <c r="F43">
+        <v>-0.00115598262826675</v>
+      </c>
+      <c r="G43">
+        <v>0.04424620389458964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003456115492067275</v>
+        <v>0.01719428405573255</v>
       </c>
       <c r="C44">
-        <v>0.007503210604397649</v>
+        <v>-0.04876545413808808</v>
       </c>
       <c r="D44">
-        <v>0.02705806365821822</v>
+        <v>-0.006007324704118227</v>
       </c>
       <c r="E44">
-        <v>-3.034784227172183e-05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01664071707768654</v>
+      </c>
+      <c r="F44">
+        <v>-0.001801011126748521</v>
+      </c>
+      <c r="G44">
+        <v>0.06186034823400201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01122128776657001</v>
+        <v>0.007109982265249691</v>
       </c>
       <c r="C46">
-        <v>0.01639168329088313</v>
+        <v>-0.01638012317947898</v>
       </c>
       <c r="D46">
-        <v>0.01093228719449856</v>
+        <v>-0.01147974588566209</v>
       </c>
       <c r="E46">
-        <v>-0.00171575632543742</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.005650758224644557</v>
+      </c>
+      <c r="F46">
+        <v>-0.0176586152960037</v>
+      </c>
+      <c r="G46">
+        <v>0.0463522533478281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004142886165486727</v>
+        <v>0.0785592666777091</v>
       </c>
       <c r="C47">
-        <v>0.05448098966902622</v>
+        <v>-0.06288549880479039</v>
       </c>
       <c r="D47">
-        <v>0.05859895411610508</v>
+        <v>0.005349556465665512</v>
       </c>
       <c r="E47">
-        <v>-0.002435906343084715</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0109914612852387</v>
+      </c>
+      <c r="F47">
+        <v>-0.05425608988302864</v>
+      </c>
+      <c r="G47">
+        <v>0.04651229651746316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004164129141110201</v>
+        <v>0.02096323990380554</v>
       </c>
       <c r="C48">
-        <v>0.02781344204695338</v>
+        <v>-0.01003645804931634</v>
       </c>
       <c r="D48">
-        <v>0.01073138404972365</v>
+        <v>-0.0008242961698807736</v>
       </c>
       <c r="E48">
-        <v>-0.00190242215690761</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003549456930568205</v>
+      </c>
+      <c r="F48">
+        <v>-0.01879018099430882</v>
+      </c>
+      <c r="G48">
+        <v>0.04726667557597628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006095229518216394</v>
+        <v>0.07991131891001688</v>
       </c>
       <c r="C50">
-        <v>0.05449323870165266</v>
+        <v>-0.06335680691937683</v>
       </c>
       <c r="D50">
-        <v>0.06183390160718159</v>
+        <v>0.003638435035075574</v>
       </c>
       <c r="E50">
-        <v>-0.03173034710520051</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01500382067005415</v>
+      </c>
+      <c r="F50">
+        <v>-0.05731373926865472</v>
+      </c>
+      <c r="G50">
+        <v>0.07113799392636283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.00734195073900708</v>
+        <v>0.01325739444551651</v>
       </c>
       <c r="C51">
-        <v>0.01691789666217179</v>
+        <v>-0.03143574949924394</v>
       </c>
       <c r="D51">
-        <v>-0.002069502304194754</v>
+        <v>-0.009597480565801415</v>
       </c>
       <c r="E51">
-        <v>-0.002404705651085122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01261871070275839</v>
+      </c>
+      <c r="F51">
+        <v>0.02651817874376815</v>
+      </c>
+      <c r="G51">
+        <v>0.06759828683788972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007477452563560789</v>
+        <v>0.08610480133224335</v>
       </c>
       <c r="C53">
-        <v>0.06610718609701736</v>
+        <v>-0.07721772799543715</v>
       </c>
       <c r="D53">
-        <v>0.1183044414339781</v>
+        <v>0.004654005876568029</v>
       </c>
       <c r="E53">
-        <v>-0.01176912125195086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03404462814564195</v>
+      </c>
+      <c r="F53">
+        <v>-0.05845635258787429</v>
+      </c>
+      <c r="G53">
+        <v>0.04447977531703805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001306217787193601</v>
+        <v>0.03190743334659685</v>
       </c>
       <c r="C54">
-        <v>0.03571915868587554</v>
+        <v>-0.01395579807808616</v>
       </c>
       <c r="D54">
-        <v>-0.007741555767954338</v>
+        <v>0.002527796303059872</v>
       </c>
       <c r="E54">
-        <v>-0.009649642351195082</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003241815861703552</v>
+      </c>
+      <c r="F54">
+        <v>-0.007151771094815549</v>
+      </c>
+      <c r="G54">
+        <v>0.05330904804127944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003851108233035209</v>
+        <v>0.07499845036827456</v>
       </c>
       <c r="C55">
-        <v>0.04652875452162245</v>
+        <v>-0.06609485050068731</v>
       </c>
       <c r="D55">
-        <v>0.1038799193621509</v>
+        <v>0.005554629833779949</v>
       </c>
       <c r="E55">
-        <v>-0.0004589824084326984</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02711451994544791</v>
+      </c>
+      <c r="F55">
+        <v>-0.05834048851367583</v>
+      </c>
+      <c r="G55">
+        <v>0.02759194289679676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006537136821357341</v>
+        <v>0.1460842926352852</v>
       </c>
       <c r="C56">
-        <v>0.09284228937447138</v>
+        <v>-0.09947125689805023</v>
       </c>
       <c r="D56">
-        <v>0.1514053016527321</v>
+        <v>0.01313120483099998</v>
       </c>
       <c r="E56">
-        <v>-0.003005940795280906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03903359171005198</v>
+      </c>
+      <c r="F56">
+        <v>-0.07754900899711777</v>
+      </c>
+      <c r="G56">
+        <v>0.01311714573077402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02432546883103725</v>
+        <v>0.008888032370843922</v>
       </c>
       <c r="C57">
-        <v>0.01631009314473365</v>
+        <v>-0.008765518718658183</v>
       </c>
       <c r="D57">
-        <v>0.04291960777391387</v>
+        <v>-0.02363045300093648</v>
       </c>
       <c r="E57">
-        <v>0.002758971022927173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02771791820700035</v>
+      </c>
+      <c r="F57">
+        <v>0.0122968624977552</v>
+      </c>
+      <c r="G57">
+        <v>0.02585842378511821</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01488631022015248</v>
+        <v>0.08063096006570936</v>
       </c>
       <c r="C58">
-        <v>0.09462120232355178</v>
+        <v>-0.03250183586896407</v>
       </c>
       <c r="D58">
-        <v>0.09387879303642734</v>
+        <v>-0.01848509915038444</v>
       </c>
       <c r="E58">
-        <v>0.225322064518261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9404562006647632</v>
+      </c>
+      <c r="F58">
+        <v>-0.236377527195444</v>
+      </c>
+      <c r="G58">
+        <v>-0.03487327014881651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03985523207288587</v>
+        <v>0.1525158808837893</v>
       </c>
       <c r="C59">
-        <v>0.2522148812249174</v>
+        <v>0.2146114701859666</v>
       </c>
       <c r="D59">
-        <v>-0.1654556312278408</v>
+        <v>0.01457339292471047</v>
       </c>
       <c r="E59">
-        <v>0.0038195684292515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.007273420854073773</v>
+      </c>
+      <c r="F59">
+        <v>0.005321634456441016</v>
+      </c>
+      <c r="G59">
+        <v>0.02430947401555673</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04120418067985245</v>
+        <v>0.2932459748112826</v>
       </c>
       <c r="C60">
-        <v>0.1632375985296687</v>
+        <v>-0.09336227350322013</v>
       </c>
       <c r="D60">
-        <v>0.08112168452427641</v>
+        <v>-0.0119911620302116</v>
       </c>
       <c r="E60">
-        <v>0.03086077301265501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.002657355402684182</v>
+      </c>
+      <c r="F60">
+        <v>0.3443525775806244</v>
+      </c>
+      <c r="G60">
+        <v>-0.1035350223783034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003418935216143582</v>
+        <v>0.03627242217176612</v>
       </c>
       <c r="C61">
-        <v>0.007842471246077846</v>
+        <v>-0.06533442162208732</v>
       </c>
       <c r="D61">
-        <v>0.06391153444829716</v>
+        <v>-0.005583236503344719</v>
       </c>
       <c r="E61">
-        <v>0.002399650771660632</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0117288982412791</v>
+      </c>
+      <c r="F61">
+        <v>0.01937926179928008</v>
+      </c>
+      <c r="G61">
+        <v>0.04327170657974119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007777866291938738</v>
+        <v>0.01434275690007474</v>
       </c>
       <c r="C63">
-        <v>0.009090221480910172</v>
+        <v>-0.02817345158474584</v>
       </c>
       <c r="D63">
-        <v>0.008420582190186005</v>
+        <v>-0.007953889268661448</v>
       </c>
       <c r="E63">
-        <v>-0.007861555661106648</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.003587919187958867</v>
+      </c>
+      <c r="F63">
+        <v>-0.01677141848313334</v>
+      </c>
+      <c r="G63">
+        <v>0.05379952730164818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008665143658384644</v>
+        <v>0.05119797967904698</v>
       </c>
       <c r="C64">
-        <v>0.03130690715750199</v>
+        <v>-0.0428667424317918</v>
       </c>
       <c r="D64">
-        <v>0.06457109025588519</v>
+        <v>-0.005586791260320683</v>
       </c>
       <c r="E64">
-        <v>0.01383388803228231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.005074057436223339</v>
+      </c>
+      <c r="F64">
+        <v>0.002526540371193593</v>
+      </c>
+      <c r="G64">
+        <v>0.03837780258582436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01677282261748204</v>
+        <v>0.08315101079398124</v>
       </c>
       <c r="C65">
-        <v>0.00761685806088541</v>
+        <v>-0.05584787207479228</v>
       </c>
       <c r="D65">
-        <v>0.1029242739409586</v>
+        <v>-0.01503365986891916</v>
       </c>
       <c r="E65">
-        <v>-0.01179982497207054</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01903706225783375</v>
+      </c>
+      <c r="F65">
+        <v>0.02897467887564332</v>
+      </c>
+      <c r="G65">
+        <v>0.01961711726010114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004744074731511904</v>
+        <v>0.05270267123533302</v>
       </c>
       <c r="C66">
-        <v>-0.01204749359456176</v>
+        <v>-0.1125609896510827</v>
       </c>
       <c r="D66">
-        <v>0.1185514974818428</v>
+        <v>-0.01198466565685247</v>
       </c>
       <c r="E66">
-        <v>0.01796367878755535</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02776831879455252</v>
+      </c>
+      <c r="F66">
+        <v>0.03593010543481259</v>
+      </c>
+      <c r="G66">
+        <v>0.04621045088252829</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003218022923275789</v>
+        <v>0.05404837315815914</v>
       </c>
       <c r="C67">
-        <v>0.05777248446991447</v>
+        <v>-0.03154337114462639</v>
       </c>
       <c r="D67">
-        <v>0.03870825121317035</v>
+        <v>0.005592722671228468</v>
       </c>
       <c r="E67">
-        <v>-0.0009358870468458582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002305682212168195</v>
+      </c>
+      <c r="F67">
+        <v>-0.0140160645192062</v>
+      </c>
+      <c r="G67">
+        <v>0.04567983486008152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05730689800735719</v>
+        <v>0.1358756603402096</v>
       </c>
       <c r="C68">
-        <v>0.2299382974540999</v>
+        <v>0.2752227198173319</v>
       </c>
       <c r="D68">
-        <v>-0.1580850970267405</v>
+        <v>-0.003551820043311319</v>
       </c>
       <c r="E68">
-        <v>0.01071908815750603</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.006706996232127807</v>
+      </c>
+      <c r="F68">
+        <v>-0.03105199930385082</v>
+      </c>
+      <c r="G68">
+        <v>0.01999453232086633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001062456981529786</v>
+        <v>0.08159654862965735</v>
       </c>
       <c r="C69">
-        <v>0.04176766468153657</v>
+        <v>-0.06601395838424251</v>
       </c>
       <c r="D69">
-        <v>0.06291668065962079</v>
+        <v>0.009358408109165444</v>
       </c>
       <c r="E69">
-        <v>-0.002983549440629586</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02907929299295655</v>
+      </c>
+      <c r="F69">
+        <v>-0.03837038021008022</v>
+      </c>
+      <c r="G69">
+        <v>0.04735036521934775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04264745152059712</v>
+        <v>0.127634011963161</v>
       </c>
       <c r="C71">
-        <v>0.2040792629162516</v>
+        <v>0.2368568730291284</v>
       </c>
       <c r="D71">
-        <v>-0.1430593278593375</v>
+        <v>0.005306379274999172</v>
       </c>
       <c r="E71">
-        <v>-0.001999459565893022</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02473862753810968</v>
+      </c>
+      <c r="F71">
+        <v>-0.008433750809864639</v>
+      </c>
+      <c r="G71">
+        <v>0.03844513247134519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>6.846053706939176e-05</v>
+        <v>0.08678450754139586</v>
       </c>
       <c r="C72">
-        <v>0.04788849271769853</v>
+        <v>-0.07227544079021228</v>
       </c>
       <c r="D72">
-        <v>0.1347096113792949</v>
+        <v>0.007862490567171703</v>
       </c>
       <c r="E72">
-        <v>0.01508657577881494</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002666978813141282</v>
+      </c>
+      <c r="F72">
+        <v>0.04510964685866221</v>
+      </c>
+      <c r="G72">
+        <v>0.02726447776849037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05421006597924567</v>
+        <v>0.395019054770978</v>
       </c>
       <c r="C73">
-        <v>0.1890257280731178</v>
+        <v>-0.1026106063791103</v>
       </c>
       <c r="D73">
-        <v>0.1788518737220358</v>
+        <v>-0.0201119966500905</v>
       </c>
       <c r="E73">
-        <v>0.08206347956858802</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06556264536552567</v>
+      </c>
+      <c r="F73">
+        <v>0.5598429601362767</v>
+      </c>
+      <c r="G73">
+        <v>-0.166728778756388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003459095800702745</v>
+        <v>0.1149917245277069</v>
       </c>
       <c r="C74">
-        <v>0.08154238791836814</v>
+        <v>-0.1097032377164448</v>
       </c>
       <c r="D74">
-        <v>0.1601338767172738</v>
+        <v>0.01031211119650779</v>
       </c>
       <c r="E74">
-        <v>0.003346494075309371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01708085549426031</v>
+      </c>
+      <c r="F74">
+        <v>-0.07403581689793405</v>
+      </c>
+      <c r="G74">
+        <v>0.05185248502794703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01243626248561947</v>
+        <v>0.2513633144066439</v>
       </c>
       <c r="C75">
-        <v>0.1892883441433045</v>
+        <v>-0.1444545191435304</v>
       </c>
       <c r="D75">
-        <v>0.2869111792231288</v>
+        <v>0.03000288080263985</v>
       </c>
       <c r="E75">
-        <v>0.008113594776928879</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05685851872934799</v>
+      </c>
+      <c r="F75">
+        <v>-0.1846455460358422</v>
+      </c>
+      <c r="G75">
+        <v>-0.03172728806252507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0005395010612334576</v>
+        <v>0.1293115506163484</v>
       </c>
       <c r="C76">
-        <v>0.1198304970939084</v>
+        <v>-0.1130642221044694</v>
       </c>
       <c r="D76">
-        <v>0.232506464031172</v>
+        <v>0.02069423819849712</v>
       </c>
       <c r="E76">
-        <v>-0.02223308739829396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0476512118542425</v>
+      </c>
+      <c r="F76">
+        <v>-0.1190868688846495</v>
+      </c>
+      <c r="G76">
+        <v>0.0321851732632681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01257283755087779</v>
+        <v>0.06825141918159877</v>
       </c>
       <c r="C77">
-        <v>0.02062443775333215</v>
+        <v>-0.05707507995661285</v>
       </c>
       <c r="D77">
-        <v>0.0477669104632468</v>
+        <v>-0.01181619658494738</v>
       </c>
       <c r="E77">
-        <v>0.01259527589544029</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04871934655800757</v>
+      </c>
+      <c r="F77">
+        <v>0.009419084758679173</v>
+      </c>
+      <c r="G77">
+        <v>0.05220634285586776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004797105933002553</v>
+        <v>0.04439701238114689</v>
       </c>
       <c r="C78">
-        <v>0.01643119689494623</v>
+        <v>-0.05162235675702852</v>
       </c>
       <c r="D78">
-        <v>0.06420827030054818</v>
+        <v>-0.005439115846061684</v>
       </c>
       <c r="E78">
-        <v>0.003511602601301528</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02087373114978558</v>
+      </c>
+      <c r="F78">
+        <v>0.03526858744821131</v>
+      </c>
+      <c r="G78">
+        <v>0.05004320099586855</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01704744675020899</v>
+        <v>0.05399854647979933</v>
       </c>
       <c r="C80">
-        <v>0.09154313052527868</v>
+        <v>-0.05474664633057677</v>
       </c>
       <c r="D80">
-        <v>0.1458036911396504</v>
+        <v>-0.01093985616613996</v>
       </c>
       <c r="E80">
-        <v>-0.8999568109256655</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03227976739409068</v>
+      </c>
+      <c r="F80">
+        <v>0.02268547958898604</v>
+      </c>
+      <c r="G80">
+        <v>0.8191903530563023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008172379894169085</v>
+        <v>0.1451079511813269</v>
       </c>
       <c r="C81">
-        <v>0.114415572578943</v>
+        <v>-0.08757790527791361</v>
       </c>
       <c r="D81">
-        <v>0.1723009235290001</v>
+        <v>0.0155549670694317</v>
       </c>
       <c r="E81">
-        <v>-0.007674533178667009</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03473140973498508</v>
+      </c>
+      <c r="F81">
+        <v>-0.1290628223665493</v>
+      </c>
+      <c r="G81">
+        <v>0.02713553015841839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1191574789268223</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05802923428145921</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.006161967492599037</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08179141447040275</v>
+      </c>
+      <c r="F82">
+        <v>-0.0198117538159868</v>
+      </c>
+      <c r="G82">
+        <v>0.02028227618585473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007438486096607745</v>
+        <v>0.03112059072166485</v>
       </c>
       <c r="C83">
-        <v>0.022372847701763</v>
+        <v>-0.02064864908362395</v>
       </c>
       <c r="D83">
-        <v>0.02325311863756379</v>
+        <v>-0.005810731711632963</v>
       </c>
       <c r="E83">
-        <v>-0.0005761657149787156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02745970780155622</v>
+      </c>
+      <c r="F83">
+        <v>0.03700391715592844</v>
+      </c>
+      <c r="G83">
+        <v>0.03249406478040601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01853209899765193</v>
+        <v>0.2223648722631889</v>
       </c>
       <c r="C85">
-        <v>0.1480542789545508</v>
+        <v>-0.1398922497736516</v>
       </c>
       <c r="D85">
-        <v>0.2652777957513817</v>
+        <v>0.01789363689114648</v>
       </c>
       <c r="E85">
-        <v>0.01609120246166969</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09603491262167652</v>
+      </c>
+      <c r="F85">
+        <v>-0.1442577660103205</v>
+      </c>
+      <c r="G85">
+        <v>-0.06656459150461294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008318411466804961</v>
+        <v>0.01513226855409871</v>
       </c>
       <c r="C86">
-        <v>0.02988883447363524</v>
+        <v>-0.02213871077085227</v>
       </c>
       <c r="D86">
-        <v>0.009443098553484653</v>
+        <v>-0.01107488594750962</v>
       </c>
       <c r="E86">
-        <v>0.0329941621609112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03971832389871421</v>
+      </c>
+      <c r="F86">
+        <v>0.04435668318254333</v>
+      </c>
+      <c r="G86">
+        <v>0.08917126976589414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007825469471646416</v>
+        <v>0.02106477050167994</v>
       </c>
       <c r="C87">
-        <v>0.01266079515230148</v>
+        <v>-0.02503527931868355</v>
       </c>
       <c r="D87">
-        <v>0.0426209852518363</v>
+        <v>-0.01105367074153778</v>
       </c>
       <c r="E87">
-        <v>0.006974126989007582</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08355180646861181</v>
+      </c>
+      <c r="F87">
+        <v>0.02377910541127335</v>
+      </c>
+      <c r="G87">
+        <v>0.06555876773067774</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02811831845294216</v>
+        <v>0.09201305505663156</v>
       </c>
       <c r="C88">
-        <v>0.03492939070179026</v>
+        <v>-0.06301448001360779</v>
       </c>
       <c r="D88">
-        <v>0.03651477010794954</v>
+        <v>-0.02282670949045656</v>
       </c>
       <c r="E88">
-        <v>0.002772479782908301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01326150966212766</v>
+      </c>
+      <c r="F88">
+        <v>-0.02023187540995556</v>
+      </c>
+      <c r="G88">
+        <v>0.03799336647151686</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.0793610034604651</v>
+        <v>0.2129114154875054</v>
       </c>
       <c r="C89">
-        <v>0.365612512868622</v>
+        <v>0.3748089662147533</v>
       </c>
       <c r="D89">
-        <v>-0.2399792225067932</v>
+        <v>0.004379583380700913</v>
       </c>
       <c r="E89">
-        <v>0.01434029196552833</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02176317865178843</v>
+      </c>
+      <c r="F89">
+        <v>-0.0266270566771184</v>
+      </c>
+      <c r="G89">
+        <v>0.0314707075890271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06074153752194846</v>
+        <v>0.1895778824030893</v>
       </c>
       <c r="C90">
-        <v>0.2828959651775427</v>
+        <v>0.3345258608355243</v>
       </c>
       <c r="D90">
-        <v>-0.2162514190243418</v>
+        <v>0.008491590135296984</v>
       </c>
       <c r="E90">
-        <v>0.02143903772666481</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02005940519326571</v>
+      </c>
+      <c r="F90">
+        <v>-0.04794968196884176</v>
+      </c>
+      <c r="G90">
+        <v>0.002868295485934769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.008087430656321053</v>
+        <v>0.197247442556791</v>
       </c>
       <c r="C91">
-        <v>0.1626518172025984</v>
+        <v>-0.1335426956743602</v>
       </c>
       <c r="D91">
-        <v>0.2434660950858312</v>
+        <v>0.02369460431228697</v>
       </c>
       <c r="E91">
-        <v>-0.007067722753063633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07290372688478575</v>
+      </c>
+      <c r="F91">
+        <v>-0.1595992366641926</v>
+      </c>
+      <c r="G91">
+        <v>0.01496841199708091</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02798127124019235</v>
+        <v>0.1911877165344738</v>
       </c>
       <c r="C92">
-        <v>0.3095007999353444</v>
+        <v>0.2689948112173659</v>
       </c>
       <c r="D92">
-        <v>-0.09740991389887761</v>
+        <v>0.04358574373180184</v>
       </c>
       <c r="E92">
-        <v>-0.0005615593876585484</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01008834694865525</v>
+      </c>
+      <c r="F92">
+        <v>-0.05982824133201668</v>
+      </c>
+      <c r="G92">
+        <v>0.09399246871718207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05941318424266852</v>
+        <v>0.2160390603361204</v>
       </c>
       <c r="C93">
-        <v>0.3131124585336691</v>
+        <v>0.3301707326945598</v>
       </c>
       <c r="D93">
-        <v>-0.2074605475598915</v>
+        <v>0.01497163926625681</v>
       </c>
       <c r="E93">
-        <v>0.03263345550860367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.006193841855593102</v>
+      </c>
+      <c r="F93">
+        <v>-0.03581376510421395</v>
+      </c>
+      <c r="G93">
+        <v>0.01253665627982606</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03165530440153842</v>
+        <v>0.3143540868276249</v>
       </c>
       <c r="C94">
-        <v>0.1918808469230825</v>
+        <v>-0.1648248539896031</v>
       </c>
       <c r="D94">
-        <v>0.2471426472963604</v>
+        <v>0.01646422666537711</v>
       </c>
       <c r="E94">
-        <v>0.03126854007161487</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1563156665930756</v>
+      </c>
+      <c r="F94">
+        <v>-0.4871377609133193</v>
+      </c>
+      <c r="G94">
+        <v>-0.2354518878275911</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004178108632432947</v>
+        <v>0.0914235915531217</v>
       </c>
       <c r="C95">
-        <v>0.04175050078748596</v>
+        <v>-0.08688346690294085</v>
       </c>
       <c r="D95">
-        <v>0.0948969808341016</v>
+        <v>0.007034924635790964</v>
       </c>
       <c r="E95">
-        <v>0.1175003821097076</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07227735387885041</v>
+      </c>
+      <c r="F95">
+        <v>0.1902274024027554</v>
+      </c>
+      <c r="G95">
+        <v>-0.09534313599618231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01552584524963891</v>
+        <v>0.2008312835108562</v>
       </c>
       <c r="C98">
-        <v>0.1687387130516497</v>
+        <v>-0.04178980537736938</v>
       </c>
       <c r="D98">
-        <v>0.1220030547381279</v>
+        <v>0.01293345935866017</v>
       </c>
       <c r="E98">
-        <v>0.05640828779130788</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06683195943319649</v>
+      </c>
+      <c r="F98">
+        <v>0.247291274417113</v>
+      </c>
+      <c r="G98">
+        <v>-0.02562151940689274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00800225566000067</v>
+        <v>0.01105306867282711</v>
       </c>
       <c r="C101">
-        <v>0.01794472490569188</v>
+        <v>-0.01983090320436203</v>
       </c>
       <c r="D101">
-        <v>0.00970334760303046</v>
+        <v>-0.0073158274794288</v>
       </c>
       <c r="E101">
-        <v>-0.007440519689326675</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007036949494048344</v>
+      </c>
+      <c r="F101">
+        <v>-0.0160680203591408</v>
+      </c>
+      <c r="G101">
+        <v>0.04884691075819026</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01836823345179683</v>
+        <v>0.1218693204958674</v>
       </c>
       <c r="C102">
-        <v>0.08333487513595667</v>
+        <v>-0.08060214952225599</v>
       </c>
       <c r="D102">
-        <v>0.1257504320391764</v>
+        <v>-0.001174485481344331</v>
       </c>
       <c r="E102">
-        <v>0.001551333066017546</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03260628412692138</v>
+      </c>
+      <c r="F102">
+        <v>-0.04247231594432913</v>
+      </c>
+      <c r="G102">
+        <v>0.005763634977197259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001953630713448194</v>
+        <v>0.003700520306267358</v>
       </c>
       <c r="C103">
-        <v>0.01206272177994719</v>
+        <v>-0.003417086233781991</v>
       </c>
       <c r="D103">
-        <v>0.022698987362545</v>
+        <v>-9.959091465064262e-05</v>
       </c>
       <c r="E103">
-        <v>-0.008658994717504694</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002396567886490299</v>
+      </c>
+      <c r="F103">
+        <v>-0.005945807876122411</v>
+      </c>
+      <c r="G103">
+        <v>0.01022238044850314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9760957025424364</v>
+        <v>0.0250716994044333</v>
       </c>
       <c r="C104">
-        <v>-0.1708879009132779</v>
+        <v>0.03663505826348915</v>
       </c>
       <c r="D104">
-        <v>-0.006344837228108463</v>
+        <v>-0.9875038346601407</v>
       </c>
       <c r="E104">
-        <v>-0.02959340974552809</v>
+        <v>0.04269668873452222</v>
+      </c>
+      <c r="F104">
+        <v>-0.04107100214024901</v>
+      </c>
+      <c r="G104">
+        <v>-0.01127105203636455</v>
       </c>
     </row>
   </sheetData>
